--- a/KosmosV4System/doc/sourcing/ElectroniqueV4Mono.xlsx
+++ b/KosmosV4System/doc/sourcing/ElectroniqueV4Mono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofauvarq\Documents\GitHub\DocV4\KosmosV4System\doc\sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F23855-2F62-4C24-9233-3CFA100008DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF0D5E5-24A7-4F2B-8FA3-2FD7DE8CE2BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>46013</v>
+        <v>46014</v>
       </c>
       <c r="C1" s="58"/>
       <c r="D1" s="58"/>
